--- a/nomii_real/data/retailer_feedback.xlsx
+++ b/nomii_real/data/retailer_feedback.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>RetailerID</t>
   </si>
@@ -49,6 +49,9 @@
     <t>R1007</t>
   </si>
   <si>
+    <t>fdf12335-2c41-40b8-a607-920ff9af1019</t>
+  </si>
+  <si>
     <t>O3005</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>O3002</t>
   </si>
   <si>
+    <t>add6407f-8225-46ae-be70-e5a3c9a9b5c7</t>
+  </si>
+  <si>
     <t>Appreciation</t>
   </si>
   <si>
@@ -76,6 +82,12 @@
     <t>Complaint</t>
   </si>
   <si>
+    <t>General Feedback</t>
+  </si>
+  <si>
+    <t>Product Issue</t>
+  </si>
+  <si>
     <t>Issue apply city all present.</t>
   </si>
   <si>
@@ -104,6 +116,18 @@
   </si>
   <si>
     <t>Simple risk fill ready.</t>
+  </si>
+  <si>
+    <t>hghghglkkkoj</t>
+  </si>
+  <si>
+    <t>fdvdfv</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:05:55</t>
+  </si>
+  <si>
+    <t>2025-08-07 23:13:44</t>
   </si>
 </sst>
 </file>
@@ -111,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -465,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,13 +517,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>45758</v>
@@ -510,13 +534,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2">
         <v>45863</v>
@@ -527,13 +551,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2">
         <v>45857</v>
@@ -544,13 +568,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2">
         <v>45721</v>
@@ -561,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>45772</v>
@@ -578,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2">
         <v>45705</v>
@@ -595,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2">
         <v>45809</v>
@@ -612,13 +636,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2">
         <v>45684</v>
@@ -629,13 +653,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2">
         <v>45670</v>
@@ -646,16 +670,50 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2">
         <v>45873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
